--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2519.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2519.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.529744499422196</v>
+        <v>2.36247181892395</v>
       </c>
       <c r="B1">
-        <v>3.377556505058709</v>
+        <v>2.681127071380615</v>
       </c>
       <c r="C1">
-        <v>3.861271692564766</v>
+        <v>2.723663568496704</v>
       </c>
       <c r="D1">
-        <v>2.008444025937019</v>
+        <v>3.446640253067017</v>
       </c>
       <c r="E1">
-        <v>2.038506731399219</v>
+        <v>1.861255764961243</v>
       </c>
     </row>
   </sheetData>
